--- a/Box/FPGA_box_parts_list.xlsx
+++ b/Box/FPGA_box_parts_list.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D686A9-1CE0-4819-87C7-9783DC6C595F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21045" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21045" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="11" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t xml:space="preserve"> Alchitry Au FPGA DEV-16527 </t>
   </si>
@@ -55,10 +56,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">18H2400
-</t>
-  </si>
-  <si>
     <t>18H3683</t>
   </si>
   <si>
@@ -87,15 +84,6 @@
   </si>
   <si>
     <t>2 Pins</t>
-  </si>
-  <si>
-    <t>FPGA mounting</t>
-  </si>
-  <si>
-    <t>M2 metal screw 5mm long</t>
-  </si>
-  <si>
-    <t>M2 metal screw 10mm long with countersunk head</t>
   </si>
   <si>
     <t xml:space="preserve">name
@@ -161,30 +149,14 @@
 15 mm long</t>
   </si>
   <si>
-    <t>spacing bolts, metal, internal-|internal-, M2 | M2, 
-5 mm long</t>
-  </si>
-  <si>
     <t xml:space="preserve">spacing bolts, plastic, internal-|external-, M3 | M3, 
 10 mm long and 8mm outside  </t>
   </si>
   <si>
-    <t>"signal conversion boards" mounting</t>
-  </si>
-  <si>
-    <t>"signal conversion boards" and frontpanel mounting</t>
-  </si>
-  <si>
     <t>boards self-assembled:</t>
   </si>
   <si>
     <t xml:space="preserve">board content of FPGA box: </t>
-  </si>
-  <si>
-    <t>~100</t>
-  </si>
-  <si>
-    <t>~61</t>
   </si>
   <si>
     <t>current need but it depends on amount of signals needed</t>
@@ -214,18 +186,48 @@
   </si>
   <si>
     <t>not assembled ordered</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beyond ACB/SCB and </t>
+  </si>
+  <si>
+    <t>for ACB/SCB and frontpanels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for FPGA board </t>
+  </si>
+  <si>
+    <t>M2 metal screws 10mm long with countersunk head</t>
+  </si>
+  <si>
+    <t>M2 metal screws 12mm long with flat head</t>
+  </si>
+  <si>
+    <t>M4 nuts for distance holding</t>
+  </si>
+  <si>
+    <t>for FPGA mounting from box below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for ACB/SCB and frontpanels </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +256,12 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
@@ -346,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -399,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +445,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -472,7 +489,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -510,7 +533,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4"/>
+        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -559,7 +588,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5"/>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -604,11 +639,17 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>613136</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6914</xdr:rowOff>
+      <xdr:rowOff>152591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Grafik 14"/>
+        <xdr:cNvPr id="15" name="Grafik 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -641,12 +682,18 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>35181</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>4255</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>131441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Grafik 15"/>
+        <xdr:cNvPr id="16" name="Grafik 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -684,7 +731,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16"/>
+        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -736,7 +789,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17"/>
+        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -775,7 +834,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -850,6 +909,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -885,6 +961,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1060,14 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1086,23 +1179,23 @@
     <row r="1" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1113,7 +1206,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,7 +1258,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1176,15 +1269,15 @@
     </row>
     <row r="9" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -1193,15 +1286,15 @@
     </row>
     <row r="10" spans="2:8" ht="36" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -1219,7 +1312,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1230,15 +1323,15 @@
     </row>
     <row r="13" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -1247,15 +1340,15 @@
     </row>
     <row r="14" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -1264,15 +1357,15 @@
     </row>
     <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -1281,24 +1374,24 @@
     </row>
     <row r="16" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1307,18 +1400,18 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5">
@@ -1326,15 +1419,15 @@
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E19" s="8">
         <v>1122556</v>
@@ -1345,15 +1438,15 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="8">
         <v>1122562</v>
@@ -1364,136 +1457,141 @@
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="22" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
         <v>8</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <v>14</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <v>14</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
       <c r="B28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <v>3</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>3</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
-        <v>3</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -1510,7 +1608,7 @@
     </row>
     <row r="37" spans="2:15" ht="24" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -1522,41 +1620,41 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="8" t="s">
-        <v>51</v>
+      <c r="G38" s="8">
+        <v>54</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O38" s="14"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="12">
         <v>661161122030</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="8" t="s">
-        <v>50</v>
+      <c r="G39" s="8">
+        <v>44</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O39" s="14"/>
     </row>

--- a/Box/FPGA_box_parts_list.xlsx
+++ b/Box/FPGA_box_parts_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D686A9-1CE0-4819-87C7-9783DC6C595F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C4EC4-1AA0-4143-8654-F25BA3D10515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21045" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t xml:space="preserve"> Alchitry Au FPGA DEV-16527 </t>
   </si>
@@ -188,15 +188,6 @@
     <t>not assembled ordered</t>
   </si>
   <si>
-    <t>Pieces</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beyond ACB/SCB and </t>
-  </si>
-  <si>
     <t>for ACB/SCB and frontpanels</t>
   </si>
   <si>
@@ -212,10 +203,47 @@
     <t>M4 nuts for distance holding</t>
   </si>
   <si>
-    <t>for FPGA mounting from box below</t>
-  </si>
-  <si>
     <t xml:space="preserve">for ACB/SCB and frontpanels </t>
+  </si>
+  <si>
+    <t>Fischerelektronik
+THFU 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 722-6921</t>
+  </si>
+  <si>
+    <t>Fischerelektronik
+SK 481/25 SA</t>
+  </si>
+  <si>
+    <t>722-6886</t>
+  </si>
+  <si>
+    <t>heat sink</t>
+  </si>
+  <si>
+    <t>heat sink clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 1 PINS
+Multi-Jumper </t>
+  </si>
+  <si>
+    <t>Wuerth Electronic
+60900213621</t>
+  </si>
+  <si>
+    <t>Wuerth Electronic</t>
+  </si>
+  <si>
+    <t>jumpers for the ACB board</t>
+  </si>
+  <si>
+    <t>beneath ACB and SCB boards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beneath FPGA board </t>
   </si>
 </sst>
 </file>
@@ -223,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -354,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -380,9 +408,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -411,9 +436,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -631,15 +662,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>105895</xdr:rowOff>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>613136</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152591</xdr:rowOff>
+      <xdr:colOff>489871</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>141385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -662,8 +693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19005177" y="5776071"/>
-          <a:ext cx="1666488" cy="2526606"/>
+          <a:off x="18881912" y="7311278"/>
+          <a:ext cx="1666488" cy="2534401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,15 +706,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>616324</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>137832</xdr:rowOff>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>35181</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>131441</xdr:rowOff>
+      <xdr:colOff>80004</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>153854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -706,8 +737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19150853" y="8441391"/>
-          <a:ext cx="942857" cy="2357539"/>
+          <a:off x="19195676" y="9875744"/>
+          <a:ext cx="942857" cy="2335639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -718,16 +749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>282227</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3272118</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -744,8 +775,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="18579353" y="7039374"/>
-          <a:ext cx="425824" cy="1768450"/>
+          <a:off x="17761324" y="8578479"/>
+          <a:ext cx="1120588" cy="1540433"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -776,16 +807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>44825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -796,12 +827,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="18579354" y="8975911"/>
-          <a:ext cx="560293" cy="358589"/>
+          <a:off x="17817354" y="10219765"/>
+          <a:ext cx="1378322" cy="823799"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -834,7 +867,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1157,13 +1190,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="B1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="50" style="1" customWidth="1"/>
@@ -1178,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1190,7 +1223,7 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1238,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1257,7 +1290,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="5"/>
@@ -1311,7 +1344,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="5"/>
@@ -1389,8 +1422,8 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="5"/>
@@ -1400,7 +1433,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
@@ -1417,9 +1450,9 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
@@ -1436,9 +1469,9 @@
       <c r="G19" s="5">
         <v>1</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
@@ -1455,29 +1488,20 @@
       <c r="G20" s="5">
         <v>1</v>
       </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15" t="s">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="22" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1488,15 +1512,15 @@
       <c r="G24" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="H24" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
@@ -1507,162 +1531,220 @@
       <c r="G25" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="H25" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="H26" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="H27" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O34" s="14"/>
+      <c r="H32" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="2:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O35" s="14"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+      <c r="H35" s="12"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="2:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5">
+        <v>60900213621</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
+        <v>16</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="2:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="5"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="8">
+      <c r="E43" s="8"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="8">
         <v>54</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D44" s="11">
         <v>661161122030</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="8">
+      <c r="E44" s="8"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="8">
         <v>44</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O40" s="14"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O41" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
